--- a/medicine/Enfance/Annie_Agopian/Annie_Agopian.xlsx
+++ b/medicine/Enfance/Annie_Agopian/Annie_Agopian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annie Agopian, née au Cameroun le 26 novembre 1956, est une femme de lettres française d'origine arménienne[1], auteure d'ouvrages de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annie Agopian, née au Cameroun le 26 novembre 1956, est une femme de lettres française d'origine arménienne, auteure d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit son enfance entre Madagascar et Aix-en-Provence.
 Elle écrit longtemps pour la publicité et la presse, puis publie en 1994 son premier ouvrage pour la jeunesse. Elle anime également des rencontres-lectures en classes primaires, ainsi que des ateliers d’écriture pour les enfants, les jeunes et les adultes. Elle travaille principalement pour les éditions Didier Jeunesse et pour les éditions du Rouergue.
-Elle s'est établie à Aulas[2].
+Elle s'est établie à Aulas.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Où va l'eau de la baignoire ?  (ill. Charlotte Mollet), Paris, Didier Jeunesse, coll. « Les yeux derrière la tête », janvier 1994, 24 p., 22 x 29 cm (ISBN 978-2-278-05022-2)
 Où vont les heures de la nuit ?  (ill. Charlotte Mollet), Paris, Didier Jeunesse, coll. « Les yeux derrière la tête », 1er mars 1995, 24 p., 22 x 29 cm (ISBN 978-2-278-05099-4)
